--- a/biology/Botanique/Liste_des_espèces_du_genre_Narcissus/Liste_des_espèces_du_genre_Narcissus.xlsx
+++ b/biology/Botanique/Liste_des_espèces_du_genre_Narcissus/Liste_des_espèces_du_genre_Narcissus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Narcissus</t>
+          <t>Liste_des_espèces_du_genre_Narcissus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,22 +490,24 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La liste des espèces du genre Narcissus présente les noms d'espèces acceptées au sein du genre Narcissus, qui sont principalement des plantes vivaces à floraison printanière de la famille des Amaryllidaceae. 
 Deux noms vernaculaires, « jonquille » et  « narcisse », sont employés pour décrire les espèces de ce genre.
 La liste des espèces est organisée en sous-genres et sections. 
-Les estimations du nombre d'espèces comprises dans le genre  Narcissus ont varié considérablement, entre 16 et près de 160[1],[2],[3], même à l'époque moderne. Linné à l'origine en avait inclus six en 1753.
+Les estimations du nombre d'espèces comprises dans le genre  Narcissus ont varié considérablement, entre 16 et près de 160 même à l'époque moderne. Linné à l'origine en avait inclus six en 1753.
 Une grande partie de la variation réside dans la définition des espèces, et si les taxons étroitement apparentés sont considérés comme des espèces distinctes ou des sous-espèces.
-Ainsi, une vision très large de l'espèce, comme celle de Webb[4], se traduit par un petit nombre d'espèces, tandis qu'une vision très étroite, comme celle de Fernandes[5], conduit à un plus grand nombre d'espèces[6].
-Un autre facteur est le statut des hybrides, étant donné l'existence d'hybridations naturelles. On distingue ceux qui sont désignés comme des « hybrides anciens », qui se rencontrent dans des zones relativement étendues, et les « hybrides récents » dont l'aire est plus restreinte et qui se rencontrent sous forme de plantes solitaires parmi leurs parents. Les premiers sont plus souvent considérés comme des espèces distinctes[3].
-Fernandes (1951) accepta 22 espèces[7], sur lesquelles se fondait la liste des 27 espèces répertoriées par Webb dans la Flora Europaea dans les années 1980[4].
-En 1968 Fernandes avait accepté 63 espèces[5] et en 1990 Blanchard en répertoriait 65[2], et Erhardt 66 en 1993[8].
-En 2006, l'International Daffodil Register répertoriait 87 espèces. En revanche, l'étude génétique de Zonneveld (2008) conduisit à seulement 36 espèces (pour la liste et la comparaison avec Webb, voir Zonneveld tableau 4)[3].
-À la date de septembre 2014, le World Checklist of Selected Plant Families (WCSP, Liste mondiale des familles de plantes sélectionnées) acceptait 52 espèces, ainsi que, au minimum, 60 hybrides[9].
-Une autre source importante est la classification botanique de la société royale d'horticulture (RHS)[10] et la liste des noms botaniques (octobre 2014)[11] qui est la base de l' International Daffodil Register (Registre international des jonquilles)[12].
-C'est une liste consultable[13] qui compte 81 noms acceptés dans son édition d'octobre 2014[11].
+Ainsi, une vision très large de l'espèce, comme celle de Webb, se traduit par un petit nombre d'espèces, tandis qu'une vision très étroite, comme celle de Fernandes, conduit à un plus grand nombre d'espèces.
+Un autre facteur est le statut des hybrides, étant donné l'existence d'hybridations naturelles. On distingue ceux qui sont désignés comme des « hybrides anciens », qui se rencontrent dans des zones relativement étendues, et les « hybrides récents » dont l'aire est plus restreinte et qui se rencontrent sous forme de plantes solitaires parmi leurs parents. Les premiers sont plus souvent considérés comme des espèces distinctes.
+Fernandes (1951) accepta 22 espèces, sur lesquelles se fondait la liste des 27 espèces répertoriées par Webb dans la Flora Europaea dans les années 1980.
+En 1968 Fernandes avait accepté 63 espèces et en 1990 Blanchard en répertoriait 65, et Erhardt 66 en 1993.
+En 2006, l'International Daffodil Register répertoriait 87 espèces. En revanche, l'étude génétique de Zonneveld (2008) conduisit à seulement 36 espèces (pour la liste et la comparaison avec Webb, voir Zonneveld tableau 4).
+À la date de septembre 2014, le World Checklist of Selected Plant Families (WCSP, Liste mondiale des familles de plantes sélectionnées) acceptait 52 espèces, ainsi que, au minimum, 60 hybrides.
+Une autre source importante est la classification botanique de la société royale d'horticulture (RHS) et la liste des noms botaniques (octobre 2014) qui est la base de l' International Daffodil Register (Registre international des jonquilles).
+C'est une liste consultable qui compte 81 noms acceptés dans son édition d'octobre 2014.
 </t>
         </is>
       </c>
@@ -506,7 +518,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Narcissus</t>
+          <t>Liste_des_espèces_du_genre_Narcissus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,12 +536,14 @@
           <t>Tableau des espèces du genre Narcissus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plus de 300 synonymes de noms d'espèces sont listés, reflétant les grandes variations dans la manière dont le genre est divisé en espèces[14].
-Ces espèces ont été organisées en sections. Ces dernières ne doivent pas être confondues avec les « divisions » de cultivars de la classification horticole des Narcisses et Jonquilles établie par la Royal Horticultural Society[15].
-Les sections (espèce type entre parenthèses) indiquées sont celles de Zonneveld (2008)[3]. 
-En outre, Mathew (2002) subdivise les sections en sous-sections[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plus de 300 synonymes de noms d'espèces sont listés, reflétant les grandes variations dans la manière dont le genre est divisé en espèces.
+Ces espèces ont été organisées en sections. Ces dernières ne doivent pas être confondues avec les « divisions » de cultivars de la classification horticole des Narcisses et Jonquilles établie par la Royal Horticultural Society.
+Les sections (espèce type entre parenthèses) indiquées sont celles de Zonneveld (2008). 
+En outre, Mathew (2002) subdivise les sections en sous-sections.
 Apodanthi (N. calcicola)
 Bulbocodium (N. bulbocodium)
 Ganymedes (N. triandrus)
@@ -541,7 +555,7 @@
 Tapeinanthus (N. cavanillesii)
 Serotini (N. serotinus)
 Tazettae (N. tazetta)
-Pour une liste des espèces par sections selon la Société royale d'horticulture, voir la RHS Botanical Classification (à jour en septembre 2013), qui est la base de l' International Daffodil Register[16].
+Pour une liste des espèces par sections selon la Société royale d'horticulture, voir la RHS Botanical Classification (à jour en septembre 2013), qui est la base de l' International Daffodil Register.
 </t>
         </is>
       </c>
@@ -552,7 +566,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Narcissus</t>
+          <t>Liste_des_espèces_du_genre_Narcissus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -570,9 +584,11 @@
           <t>Hybrides intersections (nothoespèces)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Narcissus x alleniæ Donnison-Morgan (N. obsoletus × N. viridiflorus)[17]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Narcissus x alleniæ Donnison-Morgan (N. obsoletus × N. viridiflorus)
 Narcissus x obsoletus (Haw.) Spach (N. elegans × N. serotinus)[notes 12]
 Narcissus × medioluteus syn. N. biflorus</t>
         </is>
